--- a/biology/Zoologie/Battus_zetides/Battus_zetides.xlsx
+++ b/biology/Zoologie/Battus_zetides/Battus_zetides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Battus zetides est une espèce de lépidoptères (papillons) de la famille des Papilionidae, de la sous-famille des Papilioninae et du genre Battus.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Battus zetides a été décrit par Eugène Munroe en 1971 sous le nom initial de Papilio zetides.
-Synonyme : Papilio zetes, Westwood, 1847[1].
-Noms vernaculaires
-Battus zetides se nomme Zetides Swallowtail en anglais[2].
+Synonyme : Papilio zetes, Westwood, 1847.
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Battus zetides est un moyennement grand papillon (son envergure varie de 58 à 130 mm) de couleur marron de forme vaguement triangulaire et dont chaque aile postérieure possède une longue queue. Sur le dessus il présente une ligne submarginale de taches blanches
-Le revers des antérieures est semblable, celui des postérieures est blanc veiné de marron avec une plage basale et une ligne submarginale marron.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus zetides se nomme Zetides Swallowtail en anglais.
 </t>
         </is>
       </c>
@@ -574,13 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Aristoloches : Aristolochia bilabiata et Aristolochia montana [1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus zetides est un moyennement grand papillon (son envergure varie de 58 à 130 mm) de couleur marron de forme vaguement triangulaire et dont chaque aile postérieure possède une longue queue. Sur le dessus il présente une ligne submarginale de taches blanches
+Le revers des antérieures est semblable, celui des postérieures est blanc veiné de marron avec une plage basale et une ligne submarginale marron.
 </t>
         </is>
       </c>
@@ -606,15 +625,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Aristoloches : Aristolochia bilabiata et Aristolochia montana .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Battus_zetides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_zetides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Battus zetides est présent à Haïti et en République dominicaine[1].
-Biotope
-Protection
-Battus zetides est inscrit vulnérable sur le Red Data Book[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus zetides est présent à Haïti et en République dominicaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Battus_zetides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_zetides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus zetides est inscrit vulnérable sur le Red Data Book.
 </t>
         </is>
       </c>
